--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl4-Ccr5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl4-Ccr5.xlsx
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.08097766666666667</v>
+        <v>0.7454756666666666</v>
       </c>
       <c r="H2">
-        <v>0.242933</v>
+        <v>2.236427</v>
       </c>
       <c r="I2">
-        <v>0.0005396628443312377</v>
+        <v>0.004237455828433692</v>
       </c>
       <c r="J2">
-        <v>0.0005403049696870037</v>
+        <v>0.004251944035061194</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1177973333333333</v>
+        <v>0.346153</v>
       </c>
       <c r="N2">
-        <v>0.353392</v>
+        <v>1.038459</v>
       </c>
       <c r="O2">
-        <v>0.001039436749475816</v>
+        <v>0.002587513800919532</v>
       </c>
       <c r="P2">
-        <v>0.001039896815182703</v>
+        <v>0.002593123140481257</v>
       </c>
       <c r="Q2">
-        <v>0.009538953192888888</v>
+        <v>0.2580486384436667</v>
       </c>
       <c r="R2">
-        <v>0.08585057873599999</v>
+        <v>2.322437745993</v>
       </c>
       <c r="S2">
-        <v>5.60945392724535E-07</v>
+        <v>1.096447543685909E-05</v>
       </c>
       <c r="T2">
-        <v>5.61861417204902E-07</v>
+        <v>1.102581446934843E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.08097766666666667</v>
+        <v>0.7454756666666666</v>
       </c>
       <c r="H3">
-        <v>0.242933</v>
+        <v>2.236427</v>
       </c>
       <c r="I3">
-        <v>0.0005396628443312377</v>
+        <v>0.004237455828433692</v>
       </c>
       <c r="J3">
-        <v>0.0005403049696870037</v>
+        <v>0.004251944035061194</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.062472</v>
       </c>
       <c r="O3">
-        <v>0.0001837497527200762</v>
+        <v>0.0001556606107424992</v>
       </c>
       <c r="P3">
-        <v>0.0001838310823054677</v>
+        <v>0.000155998059463248</v>
       </c>
       <c r="Q3">
-        <v>0.001686278930666667</v>
+        <v>0.01552378528266667</v>
       </c>
       <c r="R3">
-        <v>0.015176510376</v>
+        <v>0.139714067544</v>
       </c>
       <c r="S3">
-        <v>9.916291419807791E-08</v>
+        <v>6.596049622483514E-07</v>
       </c>
       <c r="T3">
-        <v>9.932484735258478E-08</v>
+        <v>6.632950184158789E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.08097766666666667</v>
+        <v>0.7454756666666666</v>
       </c>
       <c r="H4">
-        <v>0.242933</v>
+        <v>2.236427</v>
       </c>
       <c r="I4">
-        <v>0.0005396628443312377</v>
+        <v>0.004237455828433692</v>
       </c>
       <c r="J4">
-        <v>0.0005403049696870037</v>
+        <v>0.004251944035061194</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>54.104803</v>
+        <v>84.40796133333333</v>
       </c>
       <c r="N4">
-        <v>162.314409</v>
+        <v>253.223884</v>
       </c>
       <c r="O4">
-        <v>0.4774176033527871</v>
+        <v>0.630954418587972</v>
       </c>
       <c r="P4">
-        <v>0.4776289134370973</v>
+        <v>0.6323222325801418</v>
       </c>
       <c r="Q4">
-        <v>4.381280702399668</v>
+        <v>62.92408124694089</v>
       </c>
       <c r="R4">
-        <v>39.431526321597</v>
+        <v>566.316731222468</v>
       </c>
       <c r="S4">
-        <v>0.0002576445417591678</v>
+        <v>0.002673641478521593</v>
       </c>
       <c r="T4">
-        <v>0.0002580652755962674</v>
+        <v>0.002688598745055711</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.08097766666666667</v>
+        <v>0.7454756666666666</v>
       </c>
       <c r="H5">
-        <v>0.242933</v>
+        <v>2.236427</v>
       </c>
       <c r="I5">
-        <v>0.0005396628443312377</v>
+        <v>0.004237455828433692</v>
       </c>
       <c r="J5">
-        <v>0.0005403049696870037</v>
+        <v>0.004251944035061194</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.150414</v>
+        <v>0.868151</v>
       </c>
       <c r="N5">
-        <v>0.300828</v>
+        <v>1.736302</v>
       </c>
       <c r="O5">
-        <v>0.001327244300117055</v>
+        <v>0.006489479200764093</v>
       </c>
       <c r="P5">
-        <v>0.0008852211683280386</v>
+        <v>0.004335698275101748</v>
       </c>
       <c r="Q5">
-        <v>0.012180174754</v>
+        <v>0.6471854454923334</v>
       </c>
       <c r="R5">
-        <v>0.07308104852400002</v>
+        <v>3.883112672954</v>
       </c>
       <c r="S5">
-        <v>7.162644341235927E-07</v>
+        <v>2.749888146277702E-05</v>
       </c>
       <c r="T5">
-        <v>4.782893965197749E-07</v>
+        <v>1.843514641864399E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.08097766666666667</v>
+        <v>0.7454756666666666</v>
       </c>
       <c r="H6">
-        <v>0.242933</v>
+        <v>2.236427</v>
       </c>
       <c r="I6">
-        <v>0.0005396628443312377</v>
+        <v>0.004237455828433692</v>
       </c>
       <c r="J6">
-        <v>0.0005403049696870037</v>
+        <v>0.004251944035061194</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.93420533333333</v>
+        <v>48.13513433333333</v>
       </c>
       <c r="N6">
-        <v>176.802616</v>
+        <v>144.405403</v>
       </c>
       <c r="O6">
-        <v>0.5200319658449</v>
+        <v>0.3598129277996019</v>
       </c>
       <c r="P6">
-        <v>0.5202621374970866</v>
+        <v>0.3605929479448119</v>
       </c>
       <c r="Q6">
-        <v>4.772354434747555</v>
+        <v>35.88357135723122</v>
       </c>
       <c r="R6">
-        <v>42.951189912728</v>
+        <v>322.9521422150809</v>
       </c>
       <c r="S6">
-        <v>0.0002806419298310238</v>
+        <v>0.001524691388050214</v>
       </c>
       <c r="T6">
-        <v>0.0002811002184296591</v>
+        <v>0.001533221034099075</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>71.97958300000001</v>
+        <v>102.35201</v>
       </c>
       <c r="H7">
-        <v>215.938749</v>
+        <v>307.05603</v>
       </c>
       <c r="I7">
-        <v>0.4796965397318159</v>
+        <v>0.5817924591230612</v>
       </c>
       <c r="J7">
-        <v>0.4802673133443974</v>
+        <v>0.583781654929077</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.1177973333333333</v>
+        <v>0.346153</v>
       </c>
       <c r="N7">
-        <v>0.353392</v>
+        <v>1.038459</v>
       </c>
       <c r="O7">
-        <v>0.001039436749475816</v>
+        <v>0.002587513800919532</v>
       </c>
       <c r="P7">
-        <v>0.001039896815182703</v>
+        <v>0.002593123140481257</v>
       </c>
       <c r="Q7">
-        <v>8.479002931845333</v>
+        <v>35.42945531753</v>
       </c>
       <c r="R7">
-        <v>76.31102638660799</v>
+        <v>318.86509785777</v>
       </c>
       <c r="S7">
-        <v>0.0004986142119936352</v>
+        <v>0.001505396017251834</v>
       </c>
       <c r="T7">
-        <v>0.0004994284495831921</v>
+        <v>0.001513817718385033</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>71.97958300000001</v>
+        <v>102.35201</v>
       </c>
       <c r="H8">
-        <v>215.938749</v>
+        <v>307.05603</v>
       </c>
       <c r="I8">
-        <v>0.4796965397318159</v>
+        <v>0.5817924591230612</v>
       </c>
       <c r="J8">
-        <v>0.4802673133443974</v>
+        <v>0.583781654929077</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,22 +936,22 @@
         <v>0.062472</v>
       </c>
       <c r="O8">
-        <v>0.0001837497527200762</v>
+        <v>0.0001556606107424992</v>
       </c>
       <c r="P8">
-        <v>0.0001838310823054677</v>
+        <v>0.000155998059463248</v>
       </c>
       <c r="Q8">
-        <v>1.498902836392</v>
+        <v>2.13137825624</v>
       </c>
       <c r="R8">
-        <v>13.490125527528</v>
+        <v>19.18240430616</v>
       </c>
       <c r="S8">
-        <v>8.814412055639737E-05</v>
+        <v>9.056216951247623E-05</v>
       </c>
       <c r="T8">
-        <v>8.828806000803975E-05</v>
+        <v>9.106880531917948E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>71.97958300000001</v>
+        <v>102.35201</v>
       </c>
       <c r="H9">
-        <v>215.938749</v>
+        <v>307.05603</v>
       </c>
       <c r="I9">
-        <v>0.4796965397318159</v>
+        <v>0.5817924591230612</v>
       </c>
       <c r="J9">
-        <v>0.4802673133443974</v>
+        <v>0.583781654929077</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.104803</v>
+        <v>84.40796133333333</v>
       </c>
       <c r="N9">
-        <v>162.314409</v>
+        <v>253.223884</v>
       </c>
       <c r="O9">
-        <v>0.4774176033527871</v>
+        <v>0.630954418587972</v>
       </c>
       <c r="P9">
-        <v>0.4776289134370973</v>
+        <v>0.6323222325801418</v>
       </c>
       <c r="Q9">
-        <v>3894.441158237149</v>
+        <v>8639.324502468946</v>
       </c>
       <c r="R9">
-        <v>35049.97042413434</v>
+        <v>77753.92052222051</v>
       </c>
       <c r="S9">
-        <v>0.2290155723353886</v>
+        <v>0.3670845227848575</v>
       </c>
       <c r="T9">
-        <v>0.2293895550320385</v>
+        <v>0.3691381193840839</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>71.97958300000001</v>
+        <v>102.35201</v>
       </c>
       <c r="H10">
-        <v>215.938749</v>
+        <v>307.05603</v>
       </c>
       <c r="I10">
-        <v>0.4796965397318159</v>
+        <v>0.5817924591230612</v>
       </c>
       <c r="J10">
-        <v>0.4802673133443974</v>
+        <v>0.583781654929077</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.150414</v>
+        <v>0.868151</v>
       </c>
       <c r="N10">
-        <v>0.300828</v>
+        <v>1.736302</v>
       </c>
       <c r="O10">
-        <v>0.001327244300117055</v>
+        <v>0.006489479200764093</v>
       </c>
       <c r="P10">
-        <v>0.0008852211683280386</v>
+        <v>0.004335698275101748</v>
       </c>
       <c r="Q10">
-        <v>10.826736997362</v>
+        <v>88.85699983350999</v>
       </c>
       <c r="R10">
-        <v>64.96042198417202</v>
+        <v>533.14199900106</v>
       </c>
       <c r="S10">
-        <v>0.0006366744981449269</v>
+        <v>0.0037755300626405</v>
       </c>
       <c r="T10">
-        <v>0.0004251427922284957</v>
+        <v>0.002531101114312043</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>71.97958300000001</v>
+        <v>102.35201</v>
       </c>
       <c r="H11">
-        <v>215.938749</v>
+        <v>307.05603</v>
       </c>
       <c r="I11">
-        <v>0.4796965397318159</v>
+        <v>0.5817924591230612</v>
       </c>
       <c r="J11">
-        <v>0.4802673133443974</v>
+        <v>0.583781654929077</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>58.93420533333333</v>
+        <v>48.13513433333333</v>
       </c>
       <c r="N11">
-        <v>176.802616</v>
+        <v>144.405403</v>
       </c>
       <c r="O11">
-        <v>0.5200319658449</v>
+        <v>0.3598129277996019</v>
       </c>
       <c r="P11">
-        <v>0.5202621374970866</v>
+        <v>0.3605929479448119</v>
       </c>
       <c r="Q11">
-        <v>4242.059524329709</v>
+        <v>4926.727750636675</v>
       </c>
       <c r="R11">
-        <v>38178.53571896738</v>
+        <v>44340.54975573008</v>
       </c>
       <c r="S11">
-        <v>0.2494575345657324</v>
+        <v>0.2093364480887989</v>
       </c>
       <c r="T11">
-        <v>0.2498648990105392</v>
+        <v>0.2105075479069768</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.5</v>
       </c>
       <c r="G12">
-        <v>0.534989</v>
+        <v>1.79836</v>
       </c>
       <c r="H12">
-        <v>1.069978</v>
+        <v>3.59672</v>
       </c>
       <c r="I12">
-        <v>0.003565349525497869</v>
+        <v>0.01022229350247785</v>
       </c>
       <c r="J12">
-        <v>0.002379727870876994</v>
+        <v>0.006838162904394061</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1177973333333333</v>
+        <v>0.346153</v>
       </c>
       <c r="N12">
-        <v>0.353392</v>
+        <v>1.038459</v>
       </c>
       <c r="O12">
-        <v>0.001039436749475816</v>
+        <v>0.002587513800919532</v>
       </c>
       <c r="P12">
-        <v>0.001039896815182703</v>
+        <v>0.002593123140481257</v>
       </c>
       <c r="Q12">
-        <v>0.06302027756266666</v>
+        <v>0.62250770908</v>
       </c>
       <c r="R12">
-        <v>0.378121665376</v>
+        <v>3.73504625448</v>
       </c>
       <c r="S12">
-        <v>3.705955321528647E-06</v>
+        <v>2.645032551471151E-05</v>
       </c>
       <c r="T12">
-        <v>2.474671433926501E-06</v>
+        <v>1.773219846576476E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.5</v>
       </c>
       <c r="G13">
-        <v>0.534989</v>
+        <v>1.79836</v>
       </c>
       <c r="H13">
-        <v>1.069978</v>
+        <v>3.59672</v>
       </c>
       <c r="I13">
-        <v>0.003565349525497869</v>
+        <v>0.01022229350247785</v>
       </c>
       <c r="J13">
-        <v>0.002379727870876994</v>
+        <v>0.006838162904394061</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>0.062472</v>
       </c>
       <c r="O13">
-        <v>0.0001837497527200762</v>
+        <v>0.0001556606107424992</v>
       </c>
       <c r="P13">
-        <v>0.0001838310823054677</v>
+        <v>0.000155998059463248</v>
       </c>
       <c r="Q13">
-        <v>0.011140610936</v>
+        <v>0.03744904864</v>
       </c>
       <c r="R13">
-        <v>0.06684366561600001</v>
+        <v>0.22469429184</v>
       </c>
       <c r="S13">
-        <v>6.551320936708744E-07</v>
+        <v>1.591208449784784E-06</v>
       </c>
       <c r="T13">
-        <v>4.37467950095804E-07</v>
+        <v>1.066740143379041E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.5</v>
       </c>
       <c r="G14">
-        <v>0.534989</v>
+        <v>1.79836</v>
       </c>
       <c r="H14">
-        <v>1.069978</v>
+        <v>3.59672</v>
       </c>
       <c r="I14">
-        <v>0.003565349525497869</v>
+        <v>0.01022229350247785</v>
       </c>
       <c r="J14">
-        <v>0.002379727870876994</v>
+        <v>0.006838162904394061</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>54.104803</v>
+        <v>84.40796133333333</v>
       </c>
       <c r="N14">
-        <v>162.314409</v>
+        <v>253.223884</v>
       </c>
       <c r="O14">
-        <v>0.4774176033527871</v>
+        <v>0.630954418587972</v>
       </c>
       <c r="P14">
-        <v>0.4776289134370973</v>
+        <v>0.6323222325801418</v>
       </c>
       <c r="Q14">
-        <v>28.94547445216701</v>
+        <v>151.7959013434133</v>
       </c>
       <c r="R14">
-        <v>173.672846713002</v>
+        <v>910.77540806048</v>
       </c>
       <c r="S14">
-        <v>0.001702160625578189</v>
+        <v>0.006449801253491518</v>
       </c>
       <c r="T14">
-        <v>0.001136626837242956</v>
+        <v>0.004323922434453159</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>0.5</v>
       </c>
       <c r="G15">
-        <v>0.534989</v>
+        <v>1.79836</v>
       </c>
       <c r="H15">
-        <v>1.069978</v>
+        <v>3.59672</v>
       </c>
       <c r="I15">
-        <v>0.003565349525497869</v>
+        <v>0.01022229350247785</v>
       </c>
       <c r="J15">
-        <v>0.002379727870876994</v>
+        <v>0.006838162904394061</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.150414</v>
+        <v>0.868151</v>
       </c>
       <c r="N15">
-        <v>0.300828</v>
+        <v>1.736302</v>
       </c>
       <c r="O15">
-        <v>0.001327244300117055</v>
+        <v>0.006489479200764093</v>
       </c>
       <c r="P15">
-        <v>0.0008852211683280386</v>
+        <v>0.004335698275101748</v>
       </c>
       <c r="Q15">
-        <v>0.08046983544600002</v>
+        <v>1.56124803236</v>
       </c>
       <c r="R15">
-        <v>0.3218793417840001</v>
+        <v>6.24499212944</v>
       </c>
       <c r="S15">
-        <v>4.732089835642092E-06</v>
+        <v>6.633736106843597E-05</v>
       </c>
       <c r="T15">
-        <v>2.106585486160528E-06</v>
+        <v>2.964821110944609E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.5</v>
       </c>
       <c r="G16">
-        <v>0.534989</v>
+        <v>1.79836</v>
       </c>
       <c r="H16">
-        <v>1.069978</v>
+        <v>3.59672</v>
       </c>
       <c r="I16">
-        <v>0.003565349525497869</v>
+        <v>0.01022229350247785</v>
       </c>
       <c r="J16">
-        <v>0.002379727870876994</v>
+        <v>0.006838162904394061</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>58.93420533333333</v>
+        <v>48.13513433333333</v>
       </c>
       <c r="N16">
-        <v>176.802616</v>
+        <v>144.405403</v>
       </c>
       <c r="O16">
-        <v>0.5200319658449</v>
+        <v>0.3598129277996019</v>
       </c>
       <c r="P16">
-        <v>0.5202621374970866</v>
+        <v>0.3605929479448119</v>
       </c>
       <c r="Q16">
-        <v>31.52915157707467</v>
+        <v>86.56430017969332</v>
       </c>
       <c r="R16">
-        <v>189.174909462448</v>
+        <v>519.3858010781599</v>
       </c>
       <c r="S16">
-        <v>0.001854095722668838</v>
+        <v>0.003678113353953404</v>
       </c>
       <c r="T16">
-        <v>0.001238082308763856</v>
+        <v>0.002465793320222311</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>77.45677933333333</v>
+        <v>71.02944933333333</v>
       </c>
       <c r="H17">
-        <v>232.370338</v>
+        <v>213.088348</v>
       </c>
       <c r="I17">
-        <v>0.5161984478983551</v>
+        <v>0.4037477915460271</v>
       </c>
       <c r="J17">
-        <v>0.5168126538150387</v>
+        <v>0.4051282381314676</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1488,28 +1488,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.1177973333333333</v>
+        <v>0.346153</v>
       </c>
       <c r="N17">
-        <v>0.353392</v>
+        <v>1.038459</v>
       </c>
       <c r="O17">
-        <v>0.001039436749475816</v>
+        <v>0.002587513800919532</v>
       </c>
       <c r="P17">
-        <v>0.001039896815182703</v>
+        <v>0.002593123140481257</v>
       </c>
       <c r="Q17">
-        <v>9.124202054055109</v>
+        <v>24.58705697508133</v>
       </c>
       <c r="R17">
-        <v>82.11781848649599</v>
+        <v>221.283512775732</v>
       </c>
       <c r="S17">
-        <v>0.0005365556367679274</v>
+        <v>0.001044702982716128</v>
       </c>
       <c r="T17">
-        <v>0.0005374318327483796</v>
+        <v>0.00105054740916111</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>77.45677933333333</v>
+        <v>71.02944933333333</v>
       </c>
       <c r="H18">
-        <v>232.370338</v>
+        <v>213.088348</v>
       </c>
       <c r="I18">
-        <v>0.5161984478983551</v>
+        <v>0.4037477915460271</v>
       </c>
       <c r="J18">
-        <v>0.5168126538150387</v>
+        <v>0.4051282381314676</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.062472</v>
       </c>
       <c r="O18">
-        <v>0.0001837497527200762</v>
+        <v>0.0001556606107424992</v>
       </c>
       <c r="P18">
-        <v>0.0001838310823054677</v>
+        <v>0.000155998059463248</v>
       </c>
       <c r="Q18">
-        <v>1.612959972837333</v>
+        <v>1.479117252917333</v>
       </c>
       <c r="R18">
-        <v>14.516639755536</v>
+        <v>13.312055276256</v>
       </c>
       <c r="S18">
-        <v>9.485133715580988E-05</v>
+        <v>6.284762781798985E-05</v>
       </c>
       <c r="T18">
-        <v>9.500622949997955E-05</v>
+        <v>6.319921898227359E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>77.45677933333333</v>
+        <v>71.02944933333333</v>
       </c>
       <c r="H19">
-        <v>232.370338</v>
+        <v>213.088348</v>
       </c>
       <c r="I19">
-        <v>0.5161984478983551</v>
+        <v>0.4037477915460271</v>
       </c>
       <c r="J19">
-        <v>0.5168126538150387</v>
+        <v>0.4051282381314676</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>54.104803</v>
+        <v>84.40796133333333</v>
       </c>
       <c r="N19">
-        <v>162.314409</v>
+        <v>253.223884</v>
       </c>
       <c r="O19">
-        <v>0.4774176033527871</v>
+        <v>0.630954418587972</v>
       </c>
       <c r="P19">
-        <v>0.4776289134370973</v>
+        <v>0.6323222325801418</v>
       </c>
       <c r="Q19">
-        <v>4190.783786844471</v>
+        <v>5995.451012855959</v>
       </c>
       <c r="R19">
-        <v>37717.05408160025</v>
+        <v>53959.05911570363</v>
       </c>
       <c r="S19">
-        <v>0.2464422258500612</v>
+        <v>0.2547464530711013</v>
       </c>
       <c r="T19">
-        <v>0.2468446662922197</v>
+        <v>0.2561715920165489</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>77.45677933333333</v>
+        <v>71.02944933333333</v>
       </c>
       <c r="H20">
-        <v>232.370338</v>
+        <v>213.088348</v>
       </c>
       <c r="I20">
-        <v>0.5161984478983551</v>
+        <v>0.4037477915460271</v>
       </c>
       <c r="J20">
-        <v>0.5168126538150387</v>
+        <v>0.4051282381314676</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.150414</v>
+        <v>0.868151</v>
       </c>
       <c r="N20">
-        <v>0.300828</v>
+        <v>1.736302</v>
       </c>
       <c r="O20">
-        <v>0.001327244300117055</v>
+        <v>0.006489479200764093</v>
       </c>
       <c r="P20">
-        <v>0.0008852211683280386</v>
+        <v>0.004335698275101748</v>
       </c>
       <c r="Q20">
-        <v>11.650584006644</v>
+        <v>61.66428746818266</v>
       </c>
       <c r="R20">
-        <v>69.903504039864</v>
+        <v>369.985724809096</v>
       </c>
       <c r="S20">
-        <v>0.0006851214477023623</v>
+        <v>0.00262011289559238</v>
       </c>
       <c r="T20">
-        <v>0.0004574935012168627</v>
+        <v>0.001756513803261615</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>77.45677933333333</v>
+        <v>71.02944933333333</v>
       </c>
       <c r="H21">
-        <v>232.370338</v>
+        <v>213.088348</v>
       </c>
       <c r="I21">
-        <v>0.5161984478983551</v>
+        <v>0.4037477915460271</v>
       </c>
       <c r="J21">
-        <v>0.5168126538150387</v>
+        <v>0.4051282381314676</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>58.93420533333333</v>
+        <v>48.13513433333333</v>
       </c>
       <c r="N21">
-        <v>176.802616</v>
+        <v>144.405403</v>
       </c>
       <c r="O21">
-        <v>0.5200319658449</v>
+        <v>0.3598129277996019</v>
       </c>
       <c r="P21">
-        <v>0.5202621374970866</v>
+        <v>0.3605929479448119</v>
       </c>
       <c r="Q21">
-        <v>4564.853737689356</v>
+        <v>3419.012085282693</v>
       </c>
       <c r="R21">
-        <v>41083.68363920421</v>
+        <v>30771.10876754424</v>
       </c>
       <c r="S21">
-        <v>0.2684396936266678</v>
+        <v>0.1452736749687994</v>
       </c>
       <c r="T21">
-        <v>0.2688780559593539</v>
+        <v>0.1460863856835137</v>
       </c>
     </row>
   </sheetData>
